--- a/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Situjuah.xlsx
+++ b/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Situjuah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jamil\Work\MS BRIBox\PM\2\KC Payakumbuh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD8D53D-34D9-421B-B986-16E30A0B2C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F13B72-9B56-48D9-B985-F1B7096EFA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form PM'!$A$7:$W$61</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1579,8 +1579,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="H59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V73" sqref="A1:V73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8177,8 +8177,8 @@
     <mergeCell ref="Q64:V64"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
